--- a/proj/compiler/LL-tabulka.xlsx
+++ b/proj/compiler/LL-tabulka.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Snail\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Snail\Documents\GitHub\IFJ\proj\compiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>&lt;prog&gt;</t>
   </si>
@@ -65,9 +65,6 @@
     <t>EOF</t>
   </si>
   <si>
-    <t>$</t>
-  </si>
-  <si>
     <t>Indent</t>
   </si>
   <si>
@@ -114,6 +111,12 @@
   </si>
   <si>
     <t>&lt;func/expr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;-----</t>
+  </si>
+  <si>
+    <t>think to delete</t>
   </si>
 </sst>
 </file>
@@ -130,12 +133,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -165,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -176,6 +185,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="L14" sqref="L14:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,8 +493,7 @@
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
@@ -496,7 +514,7 @@
     <col min="29" max="33" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -511,10 +529,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -541,31 +559,28 @@
         <v>12</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="V1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -612,11 +627,10 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -632,7 +646,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3">
+      <c r="L3" s="5">
         <v>13</v>
       </c>
       <c r="M3" s="3">
@@ -651,11 +665,10 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -675,7 +688,7 @@
       <c r="K4" s="3">
         <v>14</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="5">
         <v>15</v>
       </c>
       <c r="M4" s="3">
@@ -694,11 +707,10 @@
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -714,7 +726,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3">
+      <c r="L5" s="5">
         <v>17</v>
       </c>
       <c r="M5" s="3">
@@ -733,11 +745,10 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -755,7 +766,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3">
+      <c r="L6" s="5">
         <v>18</v>
       </c>
       <c r="M6" s="3">
@@ -774,11 +785,10 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -807,11 +817,10 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -844,11 +853,10 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -875,9 +883,22 @@
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J14" s="6"/>
+      <c r="K14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L14:N14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
